--- a/biology/Botanique/Mahurea_palustris/Mahurea_palustris.xlsx
+++ b/biology/Botanique/Mahurea_palustris/Mahurea_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mahurea palustris est une espèce de plantes à fleurs de la famille des Calophyllaceae (anciennement des Clusiaceae, des Bonnetiaceae, ou  des Theaceae), et qui est l'espèce type du genre Mahurea Aubl..
-C'est un arbre endémique du plateau des Guyanes. Il est connu en Guyane sous les noms de Bois de vin (Créole)[3], Atit kamwi (Palikur)[4].
+C'est un arbre endémique du plateau des Guyanes. Il est connu en Guyane sous les noms de Bois de vin (Créole), Atit kamwi (Palikur).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mahurea palustris est un arbre ou un arbuste atteignant 10 m de haut, à jeunes branches glabres. Sa sève a un goût brûlant[4].
-Son bois est de couleur brun violacé foncé, mi-lourd (densité : 0,80), avec un grain fin. On compte de très nombreux vaisseaux (45 par mm2 environ), plutôt fins (90 µm), souvent accolés radialement par 2 à 4[3],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahurea palustris est un arbre ou un arbuste atteignant 10 m de haut, à jeunes branches glabres. Sa sève a un goût brûlant.
+Son bois est de couleur brun violacé foncé, mi-lourd (densité : 0,80), avec un grain fin. On compte de très nombreux vaisseaux (45 par mm2 environ), plutôt fins (90 µm), souvent accolés radialement par 2 à 4,.
 Les pétioles sont longs de 0,9 à 1,5 cm.
 On observe 2 petites stipules.
 Les feuilles sont longues de 11-20 cm pour 3,5-12 cm de large, chartacées à subcoriacées, glabres, de forme largement lancéolée, obtuse ou ovale, arrondie et parfois brièvement apiculées, o base arrondie à obtuse.
@@ -527,7 +541,7 @@
 Les pétales sont de couleur rose, densément tomentellés à l'extérieur, de forme elliptique ou spatulée, atteignant jusqu'à 1,5 cm de long.
 On compte (120-)150-180 étamines, avec les filets blancs, longs d'environ 7 mm, les anthères jaunes, atteignant jusqu'à 1,5 mm de long, et une glande large d'environ 0,5 mm.
 L'ovaire est glabre, de forme ovoïde à oblongue, avec le style rose, et le stigmate creux.
-Son fruit est une capsule à 3 valves et 3 loges, roussâtre, membraneuse, surmontée du style persistant, atteignant jusqu'à 1,5-2 x 0,9 cm, et contenant de nombreuses graines noires[7],[8].
+Son fruit est une capsule à 3 valves et 3 loges, roussâtre, membraneuse, surmontée du style persistant, atteignant jusqu'à 1,5-2 x 0,9 cm, et contenant de nombreuses graines noires,.
 </t>
         </is>
       </c>
@@ -556,9 +570,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mahurea palustris est endémique du plateau des Guyanes[9], présent au Suriname, en Guyane (zone côtière[4]), et au Brésil (Amazonas, Roraima[10])[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahurea palustris est endémique du plateau des Guyanes, présent au Suriname, en Guyane (zone côtière), et au Brésil (Amazonas, Roraima).
 </t>
         </is>
       </c>
@@ -587,11 +603,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mahurea palustris est un arbre commun en Guyane[9], poussant dans les forêts humides secondaire et ancienne[4], les lisières forestières[11], les zones humides de Guyane[12] et les forêts submontagnardes sempervirentes du Roraima[10].
-Mahurea palustris est occasionnellement l'hôte des fourmilières arboricoles de Azteca chartifex[13] et Dolichoderus bidens[11], ainsi que des guêpes Protopolybia emortualis (Epiponini)[14],[15].
-Mahurea palustris perd ses feuilles au mois d'août en Guyane[16].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahurea palustris est un arbre commun en Guyane, poussant dans les forêts humides secondaire et ancienne, les lisières forestières, les zones humides de Guyane et les forêts submontagnardes sempervirentes du Roraima.
+Mahurea palustris est occasionnellement l'hôte des fourmilières arboricoles de Azteca chartifex et Dolichoderus bidens, ainsi que des guêpes Protopolybia emortualis (Epiponini),.
+Mahurea palustris perd ses feuilles au mois d'août en Guyane.
 </t>
         </is>
       </c>
@@ -620,11 +638,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mahurea palustris entre dans la composition d'un poison de guerre Palikur : le latex abondant de Hura crepitans est mélangé à de l'eau de roucou, bouilli, jusqu'à devenir pâteux, l'on y ajoute alors la sève de Mahurea palustris, et l'on enduit cette préparations sur les pointes de flèche lancéolée[4].
-La durabilité du bois de Mahurea palustris a été testée (perte de masse calculée à 6 mois : 20,0 ; perte de masse relative par rapport à l’espèce de référence non durable : 55,1% ; Densité à 12% d'humidité : 0,60 ; infraDensité : 0,48 )[17].
-On a isolé dans les feuilles de Mahurea palustris 5 dérivés originaux d'acyl-phloroglucinol (les mahuréones A−E (1, 3−6) ), qui présentent de propriétés inhibitrices sur l'ADN polymérase β humaine[18],[19]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahurea palustris entre dans la composition d'un poison de guerre Palikur : le latex abondant de Hura crepitans est mélangé à de l'eau de roucou, bouilli, jusqu'à devenir pâteux, l'on y ajoute alors la sève de Mahurea palustris, et l'on enduit cette préparations sur les pointes de flèche lancéolée.
+La durabilité du bois de Mahurea palustris a été testée (perte de masse calculée à 6 mois : 20,0 ; perte de masse relative par rapport à l’espèce de référence non durable : 55,1% ; Densité à 12% d'humidité : 0,60 ; infraDensité : 0,48 ).
+On a isolé dans les feuilles de Mahurea palustris 5 dérivés originaux d'acyl-phloroglucinol (les mahuréones A−E (1, 3−6) ), qui présentent de propriétés inhibitrices sur l'ADN polymérase β humaine,
 </t>
         </is>
       </c>
@@ -653,9 +673,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[20] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « MAHUREA (paluſtris). (Tabula 222.)
 Arbor trunco quindecim-pedali, in ſumitate ramoſo ; ramis erectis. Folia alterna, petiolata, glabra, ovata, integerrima. Stipulæ binæ, parvæ, ad exortum petiolorum. Flores in ſpicâ terminali vei ſolitarii, vel bini, vel ternatím diſpoſiti. Flores ſolitarii, pedunculati. Squamulæ tres ; una ex axillâ pedunculi, binæ aliæ ex lateribus, hínc &amp; indè.
 Flores bini vel terni, pedunculati, pedunculo communi ad baſim ſquamulâ munito. Color ſpicæ &amp; florum purpureus. Capsula ovata, ſtylo non deciduo terminata.
